--- a/input_spreadsheets/Bangladesh/gchadder3Test/InputForCode_Bangladesh.xlsx
+++ b/input_spreadsheets/Bangladesh/gchadder3Test/InputForCode_Bangladesh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21135" windowWidth="38400" windowHeight="21135" tabRatio="500" firstSheet="15" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15540" tabRatio="500" firstSheet="17" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,15 @@
     <sheet name="Birth outcomes &amp; risks" sheetId="6" r:id="rId7"/>
     <sheet name="Relative risks" sheetId="26" r:id="rId8"/>
     <sheet name="Odds ratios" sheetId="27" r:id="rId9"/>
-    <sheet name="Appropriate breastfeeding" sheetId="19" r:id="rId10"/>
-    <sheet name="Interventions target population" sheetId="21" r:id="rId11"/>
-    <sheet name="Interventions birth outcomes" sheetId="22" r:id="rId12"/>
-    <sheet name="Interventions anemia" sheetId="30" r:id="rId13"/>
-    <sheet name="Interventions wasting" sheetId="31" r:id="rId14"/>
-    <sheet name="Interventions for children" sheetId="28" r:id="rId15"/>
-    <sheet name="Interventions cost and coverage" sheetId="20" r:id="rId16"/>
+    <sheet name="IYCF package odds ratios" sheetId="32" r:id="rId10"/>
+    <sheet name="IYCF packages" sheetId="33" r:id="rId11"/>
+    <sheet name="Appropriate breastfeeding" sheetId="19" r:id="rId12"/>
+    <sheet name="Interventions target population" sheetId="21" r:id="rId13"/>
+    <sheet name="Interventions birth outcomes" sheetId="22" r:id="rId14"/>
+    <sheet name="Interventions anemia" sheetId="30" r:id="rId15"/>
+    <sheet name="Interventions wasting" sheetId="31" r:id="rId16"/>
+    <sheet name="Interventions for children" sheetId="28" r:id="rId17"/>
+    <sheet name="Interventions cost and coverage" sheetId="20" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -56,6 +58,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Janka Petravic:</t>
         </r>
@@ -64,6 +67,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This is calculated, this is why it is grey -f formula should be in the input sheet</t>
@@ -78,6 +82,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Janka Petravic:</t>
         </r>
@@ -86,6 +91,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Fraction food insecure in the target population (here the lowest 2 wealth quintiles)</t>
@@ -100,6 +106,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Janka Petravic:</t>
         </r>
@@ -108,6 +115,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 per 100,000 live births</t>
@@ -122,6 +130,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Janka Petravic:</t>
         </r>
@@ -130,6 +139,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Fraction of pregnancies ending in spontaneous abortion</t>
@@ -144,6 +154,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Janka Petravic:</t>
         </r>
@@ -152,6 +163,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Number of stillbirths per 1000 TOTAL births</t>
@@ -166,6 +178,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Janka Petravic:</t>
         </r>
@@ -174,6 +187,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Per 1000 live births</t>
@@ -188,6 +202,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Janka Petravic:</t>
         </r>
@@ -196,6 +211,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Per 1000 live births</t>
@@ -210,6 +226,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Janka Petravic:</t>
         </r>
@@ -218,6 +235,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Per 1000 live births</t>
@@ -232,6 +250,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Janka Petravic:</t>
         </r>
@@ -240,6 +259,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Guesses</t>
@@ -254,6 +274,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Janka Petravic:</t>
         </r>
@@ -262,6 +283,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Should add up to 1</t>
@@ -276,6 +298,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Janka Petravic:</t>
         </r>
@@ -284,6 +307,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Should add up to 1</t>
@@ -299,10 +323,9 @@
   <authors>
     <author xml:space="preserve"> Janka Petravic</author>
     <author>Microsoft Office User</author>
-    <author>Ruth</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -310,6 +333,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Janka Petravic:</t>
         </r>
@@ -318,13 +342,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
+Poor pregnant women - all target population</t>
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="1" shapeId="0">
+    <comment ref="C9" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -332,23 +357,23 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+% at risk from malaria</t>
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="1" shapeId="0">
+    <comment ref="D9" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -356,23 +381,23 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+% at risk from malaria</t>
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="1" shapeId="0">
+    <comment ref="C11" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -380,23 +405,23 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+% at risk from malaria</t>
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="1" shapeId="0">
+    <comment ref="D11" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -404,440 +429,19 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O3" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L4" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M4" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N4" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O4" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L5" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M5" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N5" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O5" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B23" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-Source: WHO guidelines on sprinkles</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E23" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-Effect on iron-deficiency anemia</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B25" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-Only in malaria risk</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E30" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Ruth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-made this number up
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B31" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-Same effect as iron fortification</t>
+% at risk from malaria</t>
         </r>
       </text>
     </comment>
@@ -848,11 +452,36 @@
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Sam</author>
+    <author xml:space="preserve"> Janka Petravic</author>
     <author>Microsoft Office User</author>
+    <author>Ruth</author>
   </authors>
   <commentList>
-    <comment ref="F18" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -860,21 +489,25 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t>Sam:</t>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Should be targetting the frac poor</t>
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="F21" authorId="1" shapeId="0">
+    <comment ref="M2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -882,21 +515,25 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-WHO statement</t>
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="0" shapeId="0">
+    <comment ref="N2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -904,21 +541,25 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t>Sam:</t>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-LiST</t>
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="D23" authorId="0" shapeId="0">
+    <comment ref="O2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -926,17 +567,478 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
-          </rPr>
-          <t>Sam:</t>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-LiST</t>
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M4" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N4" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O4" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L5" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M5" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N5" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O5" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Source: WHO guidelines on sprinkles</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E23" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Effect on iron-deficiency anemia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B25" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Only in malaria risk</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E30" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ruth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+made this number up
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B31" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Same effect as iron fortification</t>
         </r>
       </text>
     </comment>
@@ -945,6 +1047,89 @@
 </file>
 
 <file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft Office User</author>
+    <author>Sam</author>
+  </authors>
+  <commentList>
+    <comment ref="F21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+WHO statement</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D22" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D23" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Ruth</author>
@@ -961,6 +1146,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Ruth:</t>
         </r>
@@ -969,6 +1155,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 made up
@@ -984,6 +1171,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Microsoft Office User:</t>
         </r>
@@ -992,6 +1180,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Horton CCC 2008: $0.9 -&gt; use $1 because of inflation</t>
@@ -1006,6 +1195,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Microsoft Office User:</t>
         </r>
@@ -1014,6 +1204,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 o data in the book, made up as = to IFAS for non-pregnant in hospital</t>
@@ -1028,6 +1219,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Janka Petravic:</t>
         </r>
@@ -1036,6 +1228,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
@@ -1050,6 +1243,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Ruth:</t>
         </r>
@@ -1058,6 +1252,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 fictional</t>
@@ -1072,6 +1267,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Janka Petravic:</t>
         </r>
@@ -1080,6 +1276,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Also brestfeeding women up to 6 months?</t>
@@ -1094,6 +1291,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Janka Petravic:</t>
         </r>
@@ -1102,6 +1300,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 There is no unit cost for this to impact the budget.</t>
@@ -1116,6 +1315,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Microsoft Office User:</t>
         </r>
@@ -1124,6 +1324,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Government subsidy</t>
@@ -1138,6 +1339,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Janka Petravic:</t>
         </r>
@@ -1146,6 +1348,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 There is no unit cost for this to impact the budget.</t>
@@ -1160,6 +1363,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Microsoft Office User:</t>
         </r>
@@ -1168,6 +1372,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Government subsidy</t>
@@ -1182,6 +1387,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Ruth:</t>
         </r>
@@ -1190,6 +1396,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This is the fraction of the population eating these staples and belongs here.</t>
@@ -1204,6 +1411,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Microsoft Office User:</t>
         </r>
@@ -1212,6 +1420,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 orton Copenhagen Consensus 2008</t>
@@ -1226,6 +1435,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Microsoft Office User:</t>
         </r>
@@ -1234,6 +1444,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Same effect as iron fortification</t>
@@ -1248,6 +1459,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Microsoft Office User:</t>
         </r>
@@ -1256,6 +1468,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 orton Copenhagen Consensus 2008</t>
@@ -1270,6 +1483,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Microsoft Office User:</t>
         </r>
@@ -1278,6 +1492,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 orton Copenhagen Consensus 2008</t>
@@ -1292,6 +1507,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Ruth:</t>
         </r>
@@ -1300,6 +1516,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This is the fraction of the population eating these staples and belongs here.</t>
@@ -1314,6 +1531,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Microsoft Office User:</t>
         </r>
@@ -1322,6 +1540,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 orton Copenhagen Consensus 2008</t>
@@ -1336,6 +1555,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Ruth:</t>
         </r>
@@ -1344,6 +1564,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 fictional</t>
@@ -1358,6 +1579,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Sam:</t>
         </r>
@@ -1366,6 +1588,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 From Nick</t>
@@ -1380,6 +1603,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Microsoft Office User:</t>
         </r>
@@ -1388,6 +1612,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Per person per year</t>
@@ -1402,6 +1627,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Microsoft Office User:</t>
         </r>
@@ -1410,6 +1636,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Made up, a bit less per treatment than PPCF per year</t>
@@ -1434,6 +1661,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Janka Petravic:</t>
         </r>
@@ -1442,6 +1670,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 calculated</t>
@@ -1456,6 +1685,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Janka Petravic:</t>
         </r>
@@ -1464,6 +1694,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 calculated</t>
@@ -1478,6 +1709,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Janka Petravic:</t>
         </r>
@@ -1486,6 +1718,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 calculated</t>
@@ -1510,6 +1743,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Sam:</t>
         </r>
@@ -1518,6 +1752,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 From Jakub's book, annual incidence of severe acute wasting is annual prevalence * 1.6  (p. 147). Assuming the same to be true for moderate wasting.</t>
@@ -1542,6 +1777,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Janka Petravic:</t>
         </r>
@@ -1550,6 +1786,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1564,6 +1801,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Janka Petravic:</t>
         </r>
@@ -1572,6 +1810,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 no data for 2 lowest age groups</t>
@@ -1586,6 +1825,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Janka Petravic:</t>
         </r>
@@ -1594,6 +1834,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 no data for 2 lowest age groups</t>
@@ -1608,6 +1849,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Janka Petravic:</t>
         </r>
@@ -1616,6 +1858,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 WHO database from 2001; hemoglobin &lt;110 g/L, includes mild (all-cause anemia). Consistent with Khan 2016 70.8% anemia in 6-23 months and Stevens overall ~51%</t>
@@ -1630,6 +1873,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Janka Petravic:</t>
         </r>
@@ -1638,6 +1882,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 WHO database from 2001</t>
@@ -1652,6 +1897,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Janka Petravic:</t>
         </r>
@@ -1660,6 +1906,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Khan 2016</t>
@@ -1674,6 +1921,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Janka Petravic:</t>
         </r>
@@ -1682,6 +1930,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 LiST - &lt;120 g/L, includes mild</t>
@@ -1696,6 +1945,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Janka Petravic:</t>
         </r>
@@ -1704,6 +1954,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 LiST &lt; 110 g/L, includes mild</t>
@@ -1718,6 +1969,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Janka Petravic:</t>
         </r>
@@ -1726,6 +1978,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Default should be ~50%</t>
@@ -1740,6 +1993,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Janka Petravic:</t>
         </r>
@@ -1748,6 +2002,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Stevens: 42% of global childhood anemia is ID</t>
@@ -1762,6 +2017,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Janka Petravic:</t>
         </r>
@@ -1770,6 +2026,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 LiST, includes mild</t>
@@ -1784,6 +2041,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Janka Petravic:</t>
         </r>
@@ -1792,6 +2050,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 LiST, includes mild</t>
@@ -1806,6 +2065,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Janka Petravic:</t>
         </r>
@@ -1814,6 +2074,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Stevens</t>
@@ -1828,6 +2089,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Janka Petravic:</t>
         </r>
@@ -1836,6 +2098,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Stevens, LiST has different values from the same source (?)</t>
@@ -1850,6 +2113,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Janka Petravic:</t>
         </r>
@@ -1858,6 +2122,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Stevens; WHO definition of &lt;70g/L, LiST is has different numbers but the same source</t>
@@ -1905,6 +2170,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Janka Petravic:</t>
         </r>
@@ -1913,6 +2179,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Term AGA should be given by a formula in the spreadsheet. The result should be greyed to indicate that it is calculated.</t>
@@ -1927,6 +2194,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Janka Petravic:</t>
         </r>
@@ -1935,6 +2203,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Kozuki 2012, for hematocrit &lt;90g/L</t>
@@ -1961,6 +2230,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Janka Petravic:</t>
         </r>
@@ -1969,6 +2239,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 LiST: 1.11</t>
@@ -1983,6 +2254,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Janka Petravic:</t>
         </r>
@@ -1991,6 +2263,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This should be changed later I guess</t>
@@ -2005,6 +2278,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> Janka Petravic:</t>
         </r>
@@ -2013,6 +2287,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This should be changed later I guess</t>
@@ -2027,6 +2302,7 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t>Sam:</t>
         </r>
@@ -2035,31 +2311,10 @@
             <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Fictional</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A19" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-Not currently using these</t>
         </r>
       </text>
     </comment>
@@ -2070,1110 +2325,78 @@
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Janka Petravic</author>
-    <author>Ruth</author>
-    <author xml:space="preserve"> Janka Petravic</author>
+    <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="E6" authorId="0" shapeId="0">
+    <comment ref="B12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-food insecure - default poor</t>
+May not need this listed</t>
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="1" shapeId="0">
+    <comment ref="A15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Ruth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-poor, not in malaria area
-</t>
+We currently do not have 'appropriate complementary feeding' data to use</t>
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="1" shapeId="0">
+    <comment ref="B25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Ruth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-poor, in malaria area
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E9" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Ruth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-poor, not in malaria area</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E10" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Ruth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-poor, in malaria area</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H15" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-food insecure - default poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B19" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B20" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-Also brestfeeding women up to 6 months?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A22" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-Coverage of these interventions is mutually exclusive</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I22" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-In baseline year, assuming only non-pregnant go to school</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I23" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-food insecure - default poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I29" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-In baseline year, assuming only non-pregnant go to school</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I30" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-food insecure - default poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E37" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating wheat</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F37" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating wheat</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G37" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating wheat</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H37" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating wheat</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I37" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating wheat</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E38" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating maize</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F38" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating maize</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G38" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating maize</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H38" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating maize</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I38" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating maize</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E39" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-fraction eating rice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F39" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-fraction eating rice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G39" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-fraction eating rice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H39" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-fraction eating rice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I39" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-fraction eating rice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C41" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-At risk from malaria</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D41" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-At risk from malaria</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E41" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-At risk from malaria</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F41" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-At risk from malaria</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G41" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-At risk from malaria</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H41" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-At risk from malaria</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I41" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-At risk from malaria</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E42" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating wheat</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F42" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating wheat</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G42" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating wheat</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H42" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating wheat</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I42" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating wheat</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E43" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating maize</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F43" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating maize</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G43" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating maize</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H43" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating maize</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I43" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction eating maize</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E44" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-fraction eating rice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F44" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-fraction eating rice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G44" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-fraction eating rice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H44" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-fraction eating rice</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I44" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve">
-fraction eating rice</t>
+May not need this group</t>
         </r>
       </text>
     </comment>
@@ -3184,11 +2407,12 @@
 <file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Janka Petravic</author>
+    <author>Ruth</author>
     <author xml:space="preserve"> Janka Petravic</author>
-    <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="E6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3196,105 +2420,1197 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Poor pregnant women - all target population</t>
+food insecure - default poor</t>
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="1" shapeId="0">
+    <comment ref="E7" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ruth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-% at risk from malaria</t>
+poor, not in malaria area
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="D9" authorId="1" shapeId="0">
+    <comment ref="E8" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ruth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-% at risk from malaria</t>
+poor, in malaria area
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="1" shapeId="0">
+    <comment ref="E9" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ruth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-% at risk from malaria</t>
+poor, not in malaria area</t>
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="1" shapeId="0">
+    <comment ref="E10" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ruth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-% at risk from malaria</t>
+poor, in malaria area</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+food insecure - default poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Also brestfeeding women up to 6 months?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A22" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Coverage of these interventions is mutually exclusive</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I22" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+In baseline year, assuming only non-pregnant go to school</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+food insecure - default poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I29" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+In baseline year, assuming only non-pregnant go to school</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+food insecure - default poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E37" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating wheat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F37" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating wheat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G37" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating wheat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H37" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating wheat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I37" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating wheat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E38" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating maize</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F38" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating maize</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G38" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating maize</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H38" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating maize</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I38" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating maize</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E39" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+fraction eating rice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F39" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+fraction eating rice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G39" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+fraction eating rice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H39" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+fraction eating rice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I39" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+fraction eating rice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C41" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+At risk from malaria</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D41" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+At risk from malaria</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E41" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+At risk from malaria</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F41" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+At risk from malaria</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G41" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+At risk from malaria</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H41" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+At risk from malaria</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I41" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+At risk from malaria</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E42" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating wheat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F42" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating wheat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G42" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating wheat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H42" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating wheat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I42" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating wheat</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E43" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating maize</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F43" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating maize</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G43" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating maize</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H43" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating maize</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I43" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fraction eating maize</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E44" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+fraction eating rice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F44" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+fraction eating rice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G44" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+fraction eating rice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H44" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+fraction eating rice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I44" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+fraction eating rice</t>
         </r>
       </text>
     </comment>
@@ -3303,7 +3619,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="206">
   <si>
     <t>year</t>
   </si>
@@ -3882,6 +4198,45 @@
   </si>
   <si>
     <t>OR MAM by intervention</t>
+  </si>
+  <si>
+    <t>Health facility</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>Delivery mode</t>
+  </si>
+  <si>
+    <t>Behaviour</t>
+  </si>
+  <si>
+    <t>OR for correct breastfeeding</t>
+  </si>
+  <si>
+    <t>OR for correct complementary feeding</t>
+  </si>
+  <si>
+    <t>Target population</t>
+  </si>
+  <si>
+    <t>IYCF package</t>
+  </si>
+  <si>
+    <t>IYCF 1</t>
+  </si>
+  <si>
+    <t>IYCF 2</t>
+  </si>
+  <si>
+    <t>IYCF 3</t>
+  </si>
+  <si>
+    <t>Mass media</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -3927,76 +4282,90 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="81"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="81"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4039,6 +4408,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -4077,7 +4452,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="547">
+  <cellStyleXfs count="551">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4625,8 +5000,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4744,8 +5123,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="547">
+  <cellStyles count="551">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -5019,6 +5410,8 @@
     <cellStyle name="Followed Hyperlink" xfId="542" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="544" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="550" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5291,6 +5684,8 @@
     <cellStyle name="Hyperlink" xfId="541" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="543" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="549" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
   </cellStyles>
@@ -6712,7 +7107,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6982,6 +7377,750 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView zoomScale="111" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="73">
+        <v>1.85</v>
+      </c>
+      <c r="E2" s="73">
+        <v>1.2</v>
+      </c>
+      <c r="F2" s="73">
+        <v>1.05</v>
+      </c>
+      <c r="G2" s="73">
+        <v>1.01</v>
+      </c>
+      <c r="H2" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="80"/>
+      <c r="C3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="73">
+        <v>1.9</v>
+      </c>
+      <c r="E3" s="73">
+        <v>1.25</v>
+      </c>
+      <c r="F3" s="73">
+        <v>1.05</v>
+      </c>
+      <c r="G3" s="73">
+        <v>1.01</v>
+      </c>
+      <c r="H3" s="75">
+        <v>1</v>
+      </c>
+      <c r="J3" s="73"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="73">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="E4" s="73">
+        <v>3.07</v>
+      </c>
+      <c r="F4" s="73">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G4" s="73">
+        <v>1.05</v>
+      </c>
+      <c r="H4" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="80"/>
+      <c r="C5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="73">
+        <v>2.17</v>
+      </c>
+      <c r="E5" s="73">
+        <v>2.48</v>
+      </c>
+      <c r="F5" s="73">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G5" s="73">
+        <v>1.05</v>
+      </c>
+      <c r="H5" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="73">
+        <v>1</v>
+      </c>
+      <c r="E6" s="73">
+        <v>1.5</v>
+      </c>
+      <c r="F6" s="73">
+        <v>1.3</v>
+      </c>
+      <c r="G6" s="73">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H6" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="80"/>
+      <c r="C7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="73">
+        <v>1</v>
+      </c>
+      <c r="E7" s="73">
+        <v>1.5</v>
+      </c>
+      <c r="F7" s="73">
+        <v>1.25</v>
+      </c>
+      <c r="G7" s="73">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H7" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="73">
+        <v>1</v>
+      </c>
+      <c r="E8" s="73">
+        <v>1</v>
+      </c>
+      <c r="F8" s="73">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G8" s="73">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H8" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="80"/>
+      <c r="C9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="73">
+        <v>1</v>
+      </c>
+      <c r="E9" s="73">
+        <v>1</v>
+      </c>
+      <c r="F9" s="73">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G9" s="73">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H9" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="73">
+        <v>1</v>
+      </c>
+      <c r="E10" s="73">
+        <v>1</v>
+      </c>
+      <c r="F10" s="73">
+        <v>1</v>
+      </c>
+      <c r="G10" s="73">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H10" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="80"/>
+      <c r="C11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" s="73">
+        <v>1</v>
+      </c>
+      <c r="E11" s="73">
+        <v>1</v>
+      </c>
+      <c r="F11" s="73">
+        <v>1</v>
+      </c>
+      <c r="G11" s="73">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H11" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" s="73">
+        <v>1</v>
+      </c>
+      <c r="E12" s="73">
+        <v>1</v>
+      </c>
+      <c r="F12" s="73">
+        <v>1</v>
+      </c>
+      <c r="G12" s="73">
+        <v>1</v>
+      </c>
+      <c r="H12" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="79"/>
+      <c r="C13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" s="73">
+        <v>1</v>
+      </c>
+      <c r="E13" s="73">
+        <v>1</v>
+      </c>
+      <c r="F13" s="73">
+        <v>1</v>
+      </c>
+      <c r="G13" s="73">
+        <v>1</v>
+      </c>
+      <c r="H13" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="73">
+        <v>1</v>
+      </c>
+      <c r="E15" s="73">
+        <v>1</v>
+      </c>
+      <c r="F15" s="73">
+        <v>1.05</v>
+      </c>
+      <c r="G15" s="73">
+        <v>1.05</v>
+      </c>
+      <c r="H15" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="80"/>
+      <c r="C16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" s="73">
+        <v>1</v>
+      </c>
+      <c r="E16" s="73">
+        <v>1</v>
+      </c>
+      <c r="F16" s="73">
+        <v>1.05</v>
+      </c>
+      <c r="G16" s="73">
+        <v>1.05</v>
+      </c>
+      <c r="H16" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D17" s="73">
+        <v>1</v>
+      </c>
+      <c r="E17" s="73">
+        <v>1</v>
+      </c>
+      <c r="F17" s="73">
+        <v>1.05</v>
+      </c>
+      <c r="G17" s="73">
+        <v>1.05</v>
+      </c>
+      <c r="H17" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="80"/>
+      <c r="C18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D18" s="73">
+        <v>1</v>
+      </c>
+      <c r="E18" s="73">
+        <v>1</v>
+      </c>
+      <c r="F18" s="73">
+        <v>1.05</v>
+      </c>
+      <c r="G18" s="73">
+        <v>1.05</v>
+      </c>
+      <c r="H18" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" s="73">
+        <v>1</v>
+      </c>
+      <c r="E19" s="73">
+        <v>1</v>
+      </c>
+      <c r="F19" s="73">
+        <v>2.5</v>
+      </c>
+      <c r="G19" s="73">
+        <v>2.5</v>
+      </c>
+      <c r="H19" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="80"/>
+      <c r="C20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D20" s="73">
+        <v>1</v>
+      </c>
+      <c r="E20" s="73">
+        <v>1</v>
+      </c>
+      <c r="F20" s="73">
+        <v>2.4</v>
+      </c>
+      <c r="G20" s="73">
+        <v>2.4</v>
+      </c>
+      <c r="H20" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" s="73">
+        <v>1</v>
+      </c>
+      <c r="E21" s="73">
+        <v>1</v>
+      </c>
+      <c r="F21" s="73">
+        <v>2</v>
+      </c>
+      <c r="G21" s="73">
+        <v>2</v>
+      </c>
+      <c r="H21" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="80"/>
+      <c r="C22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" s="73">
+        <v>1</v>
+      </c>
+      <c r="E22" s="73">
+        <v>1</v>
+      </c>
+      <c r="F22" s="73">
+        <v>1.9</v>
+      </c>
+      <c r="G22" s="73">
+        <v>1.9</v>
+      </c>
+      <c r="H22" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>193</v>
+      </c>
+      <c r="D23" s="73">
+        <v>1</v>
+      </c>
+      <c r="E23" s="73">
+        <v>1</v>
+      </c>
+      <c r="F23" s="73">
+        <v>1</v>
+      </c>
+      <c r="G23" s="73">
+        <v>2</v>
+      </c>
+      <c r="H23" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="80"/>
+      <c r="C24" t="s">
+        <v>194</v>
+      </c>
+      <c r="D24" s="73">
+        <v>1</v>
+      </c>
+      <c r="E24" s="73">
+        <v>1</v>
+      </c>
+      <c r="F24" s="73">
+        <v>1</v>
+      </c>
+      <c r="G24" s="73">
+        <v>1.9</v>
+      </c>
+      <c r="H24" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" s="73">
+        <v>1</v>
+      </c>
+      <c r="E25" s="73">
+        <v>1</v>
+      </c>
+      <c r="F25" s="73">
+        <v>1</v>
+      </c>
+      <c r="G25" s="73">
+        <v>1</v>
+      </c>
+      <c r="H25" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="79"/>
+      <c r="C26" t="s">
+        <v>194</v>
+      </c>
+      <c r="D26" s="73">
+        <v>1</v>
+      </c>
+      <c r="E26" s="73">
+        <v>1</v>
+      </c>
+      <c r="F26" s="73">
+        <v>1</v>
+      </c>
+      <c r="G26" s="73">
+        <v>1</v>
+      </c>
+      <c r="H26" s="73">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView zoomScale="133" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -6989,7 +8128,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7050,12 +8189,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7103,7 +8242,7 @@
       <c r="A2" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="76" t="s">
         <v>56</v>
       </c>
       <c r="C2" s="3">
@@ -7182,7 +8321,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="76" t="s">
         <v>57</v>
       </c>
       <c r="C5" s="3">
@@ -8225,7 +9364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -8459,7 +9598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -9915,7 +11054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -10006,7 +11145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -10014,7 +11153,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10654,13 +11793,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11259,7 +12396,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13598,8 +14735,8 @@
   </sheetPr>
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15525,10 +16662,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15729,10 +16866,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="76" t="s">
         <v>56</v>
       </c>
       <c r="C12" s="6">
@@ -15752,7 +16889,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="78"/>
+      <c r="B13" s="76" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="6">
@@ -15816,220 +16954,6 @@
       </c>
       <c r="G17" s="60">
         <v>1.04</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="61">
-        <v>1</v>
-      </c>
-      <c r="D19" s="61">
-        <v>1</v>
-      </c>
-      <c r="E19" s="61">
-        <v>1</v>
-      </c>
-      <c r="F19" s="61">
-        <v>1</v>
-      </c>
-      <c r="G19" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="61">
-        <v>1</v>
-      </c>
-      <c r="D20" s="61">
-        <v>1</v>
-      </c>
-      <c r="E20" s="61">
-        <v>1</v>
-      </c>
-      <c r="F20" s="61">
-        <v>1</v>
-      </c>
-      <c r="G20" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C21" s="61">
-        <v>1.5</v>
-      </c>
-      <c r="D21" s="61">
-        <v>1.498</v>
-      </c>
-      <c r="E21" s="61">
-        <v>1.498</v>
-      </c>
-      <c r="F21" s="61">
-        <v>1.498</v>
-      </c>
-      <c r="G21" s="61">
-        <v>1.498</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C22" s="61">
-        <v>1.5</v>
-      </c>
-      <c r="D22" s="61">
-        <v>1.498</v>
-      </c>
-      <c r="E22" s="61">
-        <v>1.498</v>
-      </c>
-      <c r="F22" s="61">
-        <v>1.498</v>
-      </c>
-      <c r="G22" s="61">
-        <v>1.498</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="61">
-        <v>1.64</v>
-      </c>
-      <c r="D23" s="61">
-        <v>1.641</v>
-      </c>
-      <c r="E23" s="61">
-        <v>1.641</v>
-      </c>
-      <c r="F23" s="61">
-        <v>1.641</v>
-      </c>
-      <c r="G23" s="61">
-        <v>1.641</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="4"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="67">
-        <v>1</v>
-      </c>
-      <c r="D25" s="67">
-        <v>1</v>
-      </c>
-      <c r="E25" s="67">
-        <v>1</v>
-      </c>
-      <c r="F25" s="67">
-        <v>1</v>
-      </c>
-      <c r="G25" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="67">
-        <v>1</v>
-      </c>
-      <c r="D26" s="67">
-        <v>1</v>
-      </c>
-      <c r="E26" s="67">
-        <v>1</v>
-      </c>
-      <c r="F26" s="67">
-        <v>1</v>
-      </c>
-      <c r="G26" s="67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C27" s="67">
-        <v>1.5</v>
-      </c>
-      <c r="D27" s="67">
-        <v>1.498</v>
-      </c>
-      <c r="E27" s="67">
-        <v>1.498</v>
-      </c>
-      <c r="F27" s="67">
-        <v>1.498</v>
-      </c>
-      <c r="G27" s="67">
-        <v>1.498</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C28" s="67">
-        <v>1.5</v>
-      </c>
-      <c r="D28" s="67">
-        <v>1.498</v>
-      </c>
-      <c r="E28" s="67">
-        <v>1.498</v>
-      </c>
-      <c r="F28" s="67">
-        <v>1.498</v>
-      </c>
-      <c r="G28" s="67">
-        <v>1.498</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="67">
-        <v>1.64</v>
-      </c>
-      <c r="D29" s="67">
-        <v>1.641</v>
-      </c>
-      <c r="E29" s="67">
-        <v>1.641</v>
-      </c>
-      <c r="F29" s="67">
-        <v>1.641</v>
-      </c>
-      <c r="G29" s="67">
-        <v>1.641</v>
       </c>
     </row>
   </sheetData>
